--- a/refer-to-noncontiguous-columns-excel-tables-finish.xlsx
+++ b/refer-to-noncontiguous-columns-excel-tables-finish.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89DDC49D-8454-4AAF-8940-DFB912BA865D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3473647B-BB88-4C8A-9101-C198791CF62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{ED58225E-3503-4C7D-9FE1-2D914B3AF25F}"/>
+    <workbookView minimized="1" xWindow="3053" yWindow="2325" windowWidth="14040" windowHeight="9083" xr2:uid="{ED58225E-3503-4C7D-9FE1-2D914B3AF25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="sales_event_revenue">_xlfn.CHOOSECOLS( sales[], MATCH("Units Sold", sales[#Headers]), MATCH("Revenue ($)", sales[#Headers]))</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Product ID</t>
   </si>
@@ -102,13 +127,16 @@
   </si>
   <si>
     <t>Spooky Sale</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="20"/>
       <color theme="1"/>
@@ -116,16 +144,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,12 +175,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,13 +245,31 @@
 </styleSheet>
 </file>
 
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEAFD2C3-5FDD-4C85-B2DB-8E22D4849DC6}" name="sales" displayName="sales" ref="A1:E13" totalsRowShown="0">
-  <autoFilter ref="A1:E13" xr:uid="{DEAFD2C3-5FDD-4C85-B2DB-8E22D4849DC6}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DEAFD2C3-5FDD-4C85-B2DB-8E22D4849DC6}" name="sales" displayName="sales" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{DEAFD2C3-5FDD-4C85-B2DB-8E22D4849DC6}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{40BF9553-AB62-423D-8777-E4CE623B033C}" name="Product ID"/>
     <tableColumn id="2" xr3:uid="{C4C769BC-B6F4-4CA6-BFE3-73BC0C78F049}" name="Theme"/>
     <tableColumn id="4" xr3:uid="{5D3419D4-9FDE-4F12-83FF-1FF8FA67ADE8}" name="Event"/>
+    <tableColumn id="3" xr3:uid="{778E966E-DB93-4347-9FE2-F555222B3B57}" name="Column1"/>
     <tableColumn id="5" xr3:uid="{314B8ADE-DB42-459D-A875-74E3AEB936D7}" name="Units Sold"/>
     <tableColumn id="6" xr3:uid="{5690F18F-1936-4E12-A6CC-0EDC55F12C58}" name="Revenue ($)"/>
   </tableColumns>
@@ -487,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28FD7F2-D738-4AF5-A5AD-791AD6949E8A}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:E13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
@@ -498,11 +605,13 @@
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="12.14453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.703125" customWidth="1"/>
-    <col min="5" max="5" width="11.0703125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.703125" customWidth="1"/>
+    <col min="6" max="6" width="11.0703125" customWidth="1"/>
+    <col min="9" max="9" width="8.58984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,13 +622,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -529,14 +641,21 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>320</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>9600</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:I9">_xlfn._xlws.FILTER(sales_event_revenue, sales[Revenue ($)] &gt; 10000)</f>
+        <v>450</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -546,14 +665,27 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>280</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8400</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="str">
+        <f>IF(K3, "x", "y")</f>
+        <v>y</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -563,14 +695,20 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>450</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>13500</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H4">
+        <v>600</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -580,14 +718,20 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>500</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H5">
+        <v>350</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -597,14 +741,24 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>600</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>18000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6:K11">TRANSPOSE(sales[#Headers])</f>
+        <v>Product ID</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -614,14 +768,23 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>350</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10500</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H7">
+        <v>550</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v>Theme</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -631,14 +794,23 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>400</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>12000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H8">
+        <v>700</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v>Event</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -648,14 +820,23 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>550</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>16500</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H9">
+        <v>650</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <v>Column1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -665,14 +846,17 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>300</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>9000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="K10" t="str">
+        <v>Units Sold</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -682,14 +866,17 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>700</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>21000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="K11" t="str">
+        <v>Revenue ($)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -699,14 +886,15 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>250</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>7500</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -716,11 +904,110 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>650</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>19500</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13:J24">sales_event_revenue</f>
+        <v>320</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="H14" s="2"/>
+      <c r="I14">
+        <v>280</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="H15" s="2"/>
+      <c r="I15">
+        <v>450</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.85">
+      <c r="H16" s="3"/>
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10" x14ac:dyDescent="0.85">
+      <c r="I17">
+        <v>600</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10" x14ac:dyDescent="0.85">
+      <c r="I18">
+        <v>350</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.85">
+      <c r="I19">
+        <v>400</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10" x14ac:dyDescent="0.85">
+      <c r="I20">
+        <v>550</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10" x14ac:dyDescent="0.85">
+      <c r="I21">
+        <v>300</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10" x14ac:dyDescent="0.85">
+      <c r="I22">
+        <v>700</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10" x14ac:dyDescent="0.85">
+      <c r="I23">
+        <v>250</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10" x14ac:dyDescent="0.85">
+      <c r="I24">
+        <v>650</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
